--- a/data/ly.xlsx
+++ b/data/ly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec5eed8c1d9fe52b/Documents/Rorschach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF0EFD0-6868-4E5E-8905-A11F1E742B92}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{2995DDD3-F1EE-4882-9EBB-04C6D311FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E8B63E-B6F8-45A4-82E7-D6719CF5B64B}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="40" windowWidth="28800" windowHeight="15370" xr2:uid="{6386C27F-904B-4188-B178-108A8F9AA223}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>DQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>INC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bt.Fd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,6 +350,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -668,7 +676,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1035,7 +1043,7 @@
         <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
